--- a/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\EoNVFEwFC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/trans/eonvfewfc/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB7BC8E-7B85-4D4E-88EA-06603D00541F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="25880" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,18 @@
   <definedNames>
     <definedName name="elec_fraction">'Plug-in Hybrid Elec Fraction'!$A$5</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -239,7 +251,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -376,7 +388,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -397,17 +409,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Body: normal cell" xfId="2"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="4"/>
-    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Body: normal cell" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="6"/>
-    <cellStyle name="Parent row" xfId="7"/>
-    <cellStyle name="Table title" xfId="8"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Parent row" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Table title" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -498,6 +511,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -533,6 +563,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,23 +755,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="95.7109375" customWidth="1"/>
+    <col min="2" max="2" width="95.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="12">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -732,150 +782,150 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2010</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3">
         <v>2012</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B14" r:id="rId2"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
@@ -883,49 +933,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>50</v>
       </c>
@@ -936,26 +986,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -966,7 +1016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -974,7 +1024,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -982,7 +1032,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -994,7 +1044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -1006,7 +1056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1018,7 +1068,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1030,21 +1080,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -1056,7 +1106,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -1068,7 +1118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1080,7 +1130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1099,7 +1149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1107,17 +1157,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="8" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1143,7 +1193,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1171,7 +1221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1198,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1226,7 +1276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1253,7 +1303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1279,7 +1329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1305,7 +1355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1331,7 +1381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1357,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1384,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1418,7 +1468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1426,17 +1476,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="8" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1462,7 +1512,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1490,7 +1540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1517,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1544,7 +1594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1624,7 +1674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1650,7 +1700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1676,7 +1726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1703,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1737,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -1745,17 +1795,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="8" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -1781,7 +1831,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1808,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1835,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1862,7 +1912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1888,7 +1938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1914,7 +1964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1940,7 +1990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1967,7 +2017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1993,7 +2043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2019,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2053,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2061,17 +2111,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="8" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -2097,7 +2147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2124,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2151,7 +2201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2178,7 +2228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2205,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2231,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2257,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2283,7 +2333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2309,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2335,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2369,7 +2419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2377,17 +2427,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="8" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -2413,7 +2463,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2440,7 +2490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2467,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2494,7 +2544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2521,7 +2571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2547,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2573,7 +2623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2599,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2626,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2652,7 +2702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -2686,7 +2736,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -2694,17 +2744,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="8" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="8" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>67</v>
       </c>
@@ -2730,7 +2780,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -2758,7 +2808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2785,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -2813,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -2840,7 +2890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -2866,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -2892,7 +2942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -2918,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -2944,7 +2994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -2971,7 +3021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>

--- a/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
+++ b/InputData/trans/EoNVFEwFC/Elast of New Veh Fuel Econ wrt Fuel Cost.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/ct/trans/eonvfewfc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/eonvfewfc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB7BC8E-7B85-4D4E-88EA-06603D00541F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5CEC28-7500-DF4F-AF9E-4AC4FE5BB7CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="25880" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
